--- a/ChanjoKe-FHIR-IG/StructureDefinition-batch-number.xlsx
+++ b/ChanjoKe-FHIR-IG/StructureDefinition-batch-number.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://shr.tiberbuapps.com/fhir/StructureDefinition/batch-number</t>
+    <t>https://intellisoft-consulting.github.io/igs/ChanjoKe-FHIR-IG/StructureDefinition/batch-number</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Extension for Batch Number</t>
+    <t xml:space="preserve">Extension for Batch Number </t>
   </si>
   <si>
     <t>Status</t>
@@ -57,19 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-23T12:29:17+03:00</t>
+    <t>2024-08-27T20:30:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>intellisoftkenya</t>
+    <t>Intellisoft Consulting Ltd</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>intellisoftkenya (http://example.org/example-publisher)</t>
+    <t>Intellisoft Consulting Ltd (https://www.intellisoftkenya.com/, info[at]intellisoftkenya.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The number associated with a claim within a Batch.</t>
+    <t xml:space="preserve">AExtension for Batch Number </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -129,7 +129,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Claim</t>
+    <t>element:SupplyDelivery</t>
   </si>
   <si>
     <t>ID</t>
